--- a/doc/论文图与数据/定量评价/抽采纯量.xlsx
+++ b/doc/论文图与数据/定量评价/抽采纯量.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\论文图与数据\定量评价\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitData\Kong\doc\论文图与数据\定量评价\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0784F0-91A7-4CD4-BE49-31DF03003C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B84FC-30B7-4697-A98F-7AC7BE96A63F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>北二二辅运</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +111,10 @@
   </si>
   <si>
     <t>215采场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41号钻场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,19 +343,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>[1]Sheet1!$D$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1405,13 +1394,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>3.1539999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.5599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2E-3</c:v>
+                  <c:v>2.1399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2999999999999999E-3</c:v>
@@ -1960,13 +1949,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>3.1539999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.5599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2E-3</c:v>
+                  <c:v>2.1399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2999999999999999E-3</c:v>
@@ -3442,6 +3431,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3705,24 +3707,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14:AI14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3776,7 +3778,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>2.0160000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>1.362E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>3.96E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>4.9850000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>2.589E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>44638</v>
       </c>
@@ -3909,17 +3911,17 @@
         <v>3.990114810775626E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="J10">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>4</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3975,7 +3977,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="F14" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="F15" s="1">
         <v>1.2E-2</v>
       </c>
@@ -4053,19 +4055,19 @@
         <v>3</v>
       </c>
       <c r="V15">
-        <v>3.0000000000000001E-3</v>
+        <v>3.1539999999999999E-2</v>
       </c>
       <c r="W15">
-        <v>1E-3</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="X15">
-        <v>2E-3</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="Y15">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="D16" s="3">
         <v>1</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>6.7379999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="1">
         <v>2.6000000000000002E-2</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>1.508E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F19" s="1">
         <v>0.124</v>
       </c>
@@ -4144,7 +4146,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F20" s="1">
         <v>0.16200000000000001</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="3">
         <v>2</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="1">
         <v>2.2000000000000002E-2</v>
       </c>
@@ -4253,7 +4255,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F24" s="1">
         <v>0.75</v>
       </c>
@@ -4268,7 +4270,7 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="1">
         <v>0.35</v>
       </c>
@@ -4283,7 +4285,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="3">
         <v>3</v>
       </c>
@@ -4309,11 +4311,11 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F28" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -4326,8 +4328,60 @@
       </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>413</v>
+      </c>
       <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>0.41</v>
+      </c>
+      <c r="H31">
+        <v>3.1539999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32">
+        <v>0.54</v>
+      </c>
+      <c r="H32">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H33">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>0.51</v>
+      </c>
+      <c r="H34">
+        <v>1.2999999999999999E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/论文图与数据/定量评价/抽采纯量.xlsx
+++ b/doc/论文图与数据/定量评价/抽采纯量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitData\Kong\doc\论文图与数据\定量评价\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_edition\github_repo\oil-gas-folder\doc\论文图与数据\定量评价\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B84FC-30B7-4697-A98F-7AC7BE96A63F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADDBD55-E71E-4C62-BFED-D99EF0943ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3709,22 +3718,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3778,7 +3787,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3796,7 +3805,7 @@
         <v>2.0160000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3827,7 +3836,7 @@
         <v>1.362E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>3.96E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3876,7 +3885,7 @@
         <v>4.9850000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>2.589E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>44638</v>
       </c>
@@ -3911,17 +3920,17 @@
         <v>3.990114810775626E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="J10">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>4</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +3986,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F14" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F15" s="1">
         <v>1.2E-2</v>
       </c>
@@ -4067,7 +4076,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
         <v>1</v>
       </c>
@@ -4086,7 +4095,7 @@
         <v>6.7379999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="1">
         <v>2.6000000000000002E-2</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>1.508E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="1">
         <v>0.124</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F20" s="1">
         <v>0.16200000000000001</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D21" s="3">
         <v>2</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>5.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F23" s="1">
         <v>2.2000000000000002E-2</v>
       </c>
@@ -4255,7 +4264,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="1">
         <v>0.75</v>
       </c>
@@ -4270,7 +4279,7 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F25" s="1">
         <v>0.35</v>
       </c>
@@ -4285,7 +4294,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D26" s="3">
         <v>3</v>
       </c>
@@ -4311,11 +4320,11 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F28" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -4328,13 +4337,13 @@
       </c>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>413</v>
       </c>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>4</v>
       </c>
@@ -4348,18 +4357,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F31" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="G31">
         <v>0.41</v>
       </c>
       <c r="H31">
         <v>3.1539999999999999E-2</v>
       </c>
+      <c r="I31">
+        <f>AVERAGE(H31:H34)</f>
+        <v>1.746E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
+      <c r="F32" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="G32">
         <v>0.54</v>
       </c>
@@ -4367,7 +4386,10 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F33" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
       <c r="G33">
         <v>0.28000000000000003</v>
       </c>
@@ -4375,7 +4397,10 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F34" s="1">
+        <v>2.3E-2</v>
+      </c>
       <c r="G34">
         <v>0.51</v>
       </c>
